--- a/data/results/advanced_analysis/mood_results/hfine_sentiment.xlsx
+++ b/data/results/advanced_analysis/mood_results/hfine_sentiment.xlsx
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -860,13 +860,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="H10" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I10" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -1313,7 +1313,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1643,7 +1643,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1930,7 +1930,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>31</v>
       </c>
       <c r="I36" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2876,10 +2876,10 @@
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I59" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -6958,7 +6958,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
@@ -9084,20 +9084,20 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>非常正面</t>
+          <t>非常负面</t>
         </is>
       </c>
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="n">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="J212" t="n">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
@@ -10702,7 +10702,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
       <c r="G252" t="inlineStr"/>
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
@@ -10825,7 +10825,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -10835,10 +10835,10 @@
       <c r="G255" t="inlineStr"/>
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J255" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
@@ -10948,7 +10948,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
       <c r="G258" t="inlineStr"/>
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
@@ -11481,7 +11481,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -11489,16 +11489,16 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H271" t="n">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="I271" t="n">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="J271" t="n">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr"/>
@@ -13795,7 +13795,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
@@ -13803,13 +13803,13 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H329" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I329" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
@@ -14090,7 +14090,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
       <c r="G336" t="inlineStr"/>
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="n">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
@@ -14340,7 +14340,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F342" t="inlineStr">
         <is>
@@ -14350,14 +14350,14 @@
       <c r="G342" t="inlineStr"/>
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J342" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M342" t="n">
         <v>2</v>
